--- a/ICE/ice08/stats.xlsx
+++ b/ICE/ice08/stats.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Documents/GitHub/ECE252/ICE/ice08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{525AD59E-82F4-444A-A521-0B20A7B9A935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149D4EC5-6B88-3C49-BE73-EAEA5A0C50DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="10000" windowHeight="14660" activeTab="1" xr2:uid="{7BF8512C-00BF-1E4B-BCFB-65955B00B585}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="10000" windowHeight="14660" xr2:uid="{7BF8512C-00BF-1E4B-BCFB-65955B00B585}"/>
   </bookViews>
   <sheets>
     <sheet name="problem1" sheetId="1" r:id="rId1"/>
     <sheet name="problem2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>trial(n)</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Average Playtime (min)</t>
+  </si>
+  <si>
+    <t>3mins, 23.4062 seconds</t>
   </si>
 </sst>
 </file>
@@ -431,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75253D9-F08C-1A4E-925C-3F67383849AB}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -646,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131F501E-88B1-A941-9D17-CA18164EA65A}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -656,6 +659,7 @@
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -755,9 +759,8 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
-        <f>AVERAGE(D3:D12)</f>
-        <v>3.3901033333333332</v>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
       <c r="G5">
         <f>STDEVA(D3:D12)</f>
